--- a/teaching/traditional_assets/database/data/norway/norway_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/norway/norway_brokerage_investment_banking.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0197</v>
+        <v>0.0302</v>
       </c>
       <c r="E2">
-        <v>-0.0195</v>
+        <v>0.0103</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,103 +603,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01025342700788869</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007812134863153283</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16.8</v>
+        <v>29.4</v>
       </c>
       <c r="L2">
-        <v>0.1377049180327869</v>
+        <v>0.1828358208955224</v>
       </c>
       <c r="M2">
-        <v>36.3</v>
+        <v>22.2</v>
       </c>
       <c r="N2">
-        <v>0.1742678828612578</v>
+        <v>0.06713032960387059</v>
       </c>
       <c r="O2">
-        <v>2.160714285714286</v>
+        <v>0.7551020408163267</v>
       </c>
       <c r="P2">
-        <v>36.3</v>
+        <v>18.6</v>
       </c>
       <c r="Q2">
-        <v>0.1742678828612578</v>
+        <v>0.05624433020864833</v>
       </c>
       <c r="R2">
-        <v>2.160714285714286</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="U2">
-        <v>62.4</v>
+        <v>80.3</v>
       </c>
       <c r="V2">
-        <v>0.299567930868939</v>
+        <v>0.2428182642878742</v>
       </c>
       <c r="W2">
-        <v>0.1997621878715815</v>
+        <v>0.4060773480662983</v>
       </c>
       <c r="X2">
-        <v>0.04516981367996137</v>
+        <v>0.03009132918402517</v>
       </c>
       <c r="Y2">
-        <v>0.1545923741916201</v>
+        <v>0.3759860188822731</v>
       </c>
       <c r="Z2">
-        <v>3.588719821410232</v>
+        <v>4.334231805929919</v>
       </c>
       <c r="AA2">
-        <v>0.0280355632309281</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04156306611941678</v>
+        <v>0.02907653416405395</v>
       </c>
       <c r="AC2">
-        <v>-0.01352750288848868</v>
+        <v>-0.02907653416405395</v>
       </c>
       <c r="AD2">
-        <v>27.1</v>
+        <v>23.8</v>
       </c>
       <c r="AE2">
-        <v>11.2954095251879</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>38.3954095251879</v>
+        <v>23.8</v>
       </c>
       <c r="AG2">
-        <v>-24.0045904748121</v>
+        <v>-56.5</v>
       </c>
       <c r="AH2">
-        <v>0.1556389298004659</v>
+        <v>0.06713681241184767</v>
       </c>
       <c r="AI2">
-        <v>0.3315797204969175</v>
+        <v>0.2224299065420561</v>
       </c>
       <c r="AJ2">
-        <v>-0.1302506152304969</v>
+        <v>-0.2060539752005835</v>
       </c>
       <c r="AK2">
-        <v>-0.4495628123891166</v>
+        <v>-2.116104868913857</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-4.02</v>
-      </c>
-      <c r="AN2">
-        <v>7.720797720797722</v>
-      </c>
-      <c r="AP2">
-        <v>-6.838914665188632</v>
+        <v>-3.01</v>
       </c>
       <c r="AQ2">
         <v>-0</v>
@@ -713,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ABG Sundal Collier Holding ASA (OB:ASC)</t>
+          <t>ABG Sundal Collier Holding ASA (OB:ABG)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,10 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0197</v>
+        <v>0.0302</v>
       </c>
       <c r="E3">
-        <v>-0.0195</v>
+        <v>0.0103</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,103 +728,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01025342700788869</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.007812134863153283</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>16.8</v>
+        <v>29.4</v>
       </c>
       <c r="L3">
-        <v>0.1377049180327869</v>
+        <v>0.1828358208955224</v>
       </c>
       <c r="M3">
-        <v>36.3</v>
+        <v>22.2</v>
       </c>
       <c r="N3">
-        <v>0.1742678828612578</v>
+        <v>0.06713032960387059</v>
       </c>
       <c r="O3">
-        <v>2.160714285714286</v>
+        <v>0.7551020408163267</v>
       </c>
       <c r="P3">
-        <v>36.3</v>
+        <v>18.6</v>
       </c>
       <c r="Q3">
-        <v>0.1742678828612578</v>
+        <v>0.05624433020864833</v>
       </c>
       <c r="R3">
-        <v>2.160714285714286</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="U3">
-        <v>62.4</v>
+        <v>80.3</v>
       </c>
       <c r="V3">
-        <v>0.299567930868939</v>
+        <v>0.2428182642878742</v>
       </c>
       <c r="W3">
-        <v>0.1997621878715815</v>
+        <v>0.4060773480662983</v>
       </c>
       <c r="X3">
-        <v>0.04516981367996137</v>
+        <v>0.03009132918402517</v>
       </c>
       <c r="Y3">
-        <v>0.1545923741916201</v>
+        <v>0.3759860188822731</v>
       </c>
       <c r="Z3">
-        <v>3.588719821410232</v>
+        <v>4.334231805929919</v>
       </c>
       <c r="AA3">
-        <v>0.0280355632309281</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04156306611941678</v>
+        <v>0.02907653416405395</v>
       </c>
       <c r="AC3">
-        <v>-0.01352750288848868</v>
+        <v>-0.02907653416405395</v>
       </c>
       <c r="AD3">
-        <v>27.1</v>
+        <v>23.8</v>
       </c>
       <c r="AE3">
-        <v>11.2954095251879</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>38.3954095251879</v>
+        <v>23.8</v>
       </c>
       <c r="AG3">
-        <v>-24.0045904748121</v>
+        <v>-56.5</v>
       </c>
       <c r="AH3">
-        <v>0.1556389298004659</v>
+        <v>0.06713681241184767</v>
       </c>
       <c r="AI3">
-        <v>0.3315797204969175</v>
+        <v>0.2224299065420561</v>
       </c>
       <c r="AJ3">
-        <v>-0.1302506152304969</v>
+        <v>-0.2060539752005835</v>
       </c>
       <c r="AK3">
-        <v>-0.4495628123891166</v>
+        <v>-2.116104868913857</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-4.02</v>
-      </c>
-      <c r="AN3">
-        <v>7.720797720797722</v>
-      </c>
-      <c r="AP3">
-        <v>-6.838914665188632</v>
+        <v>-3.01</v>
       </c>
       <c r="AQ3">
         <v>-0</v>
